--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504826.511754914</v>
+        <v>2502938.930238512</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>114.2199352296377</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.3259629886456</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>75.93999108643315</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>378.8250228382216</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>225.7295147172697</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>101.6123617732491</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>114.8791903675466</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702124</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051974</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.44029960352438</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>218.4294206174714</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>108.994983842404</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>118.2422920270587</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23.32382505946987</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>152.6276470398217</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.97449314549756</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>73.50096938092101</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>87.65220976162004</v>
       </c>
       <c r="E25" t="n">
-        <v>28.55330277370045</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.815966782553815</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>106.2835578420353</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571479</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>54.7610957752356</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>149.2503630811148</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>93.59717489588266</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789621</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.415670928748</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2131.93457488582</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2131.93457488582</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2131.93457488582</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2131.93457488582</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2131.93457488582</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>251.4439133124681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.474066797509</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>351.9727148150933</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V7" t="n">
-        <v>351.9727148150933</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>932.2014054355411</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>177.4506358968852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>170.5051351476818</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>156.5817310862727</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,7 +4805,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2526.08081531887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2526.08081531887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2526.08081531887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2526.08081531887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2526.08081531887</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>2526.08081531887</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>932.2014054355411</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,34 +5030,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>143.7578250841096</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>149.1769900497044</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>149.1769900497044</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="X13" t="n">
-        <v>245.1301850426791</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>330.8254548799441</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.274692278279</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1925.814757496976</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.5778132641555</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362486</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362486</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362486</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1188.900317198299</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1188.900317198299</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>934.2158289924123</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>934.2158289924123</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X16" t="n">
-        <v>706.2262780943951</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.2262780943951</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>754.8946022306077</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>585.9584193027007</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>435.841779890365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>435.841779890365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>288.9518323924548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>120.7765107122756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>754.8946022306077</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X19" t="n">
-        <v>754.8946022306077</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y19" t="n">
-        <v>754.8946022306077</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,7 +5829,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>549.5984374701561</v>
@@ -5838,19 +5838,19 @@
         <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.2984649031114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>272.3622819752045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>272.3622819752045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>272.3622819752045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119729</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119729</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119729</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913842</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W22" t="n">
-        <v>843.739508876881</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>843.739508876881</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>622.946929733351</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6069,25 +6069,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>595.52964222602</v>
+        <v>354.6908600059905</v>
       </c>
       <c r="C25" t="n">
-        <v>426.593459298113</v>
+        <v>185.7546770780837</v>
       </c>
       <c r="D25" t="n">
-        <v>276.4768198857773</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473454</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267567</v>
+        <v>644.1080300429512</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.311772267567</v>
+        <v>354.6908600059905</v>
       </c>
       <c r="X25" t="n">
-        <v>816.3222213695501</v>
+        <v>354.6908600059905</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.52964222602</v>
+        <v>354.6908600059905</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.3747459653036</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653036</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705748</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705748</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1496.071859666433</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1296.151849581985</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1296.151849581985</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U28" t="n">
-        <v>1007.023210795543</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V28" t="n">
-        <v>1007.023210795543</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W28" t="n">
-        <v>1007.023210795543</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X28" t="n">
-        <v>1007.023210795543</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.023210795543</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,10 +6458,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,16 +6528,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
@@ -6549,16 +6549,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O30" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.6866369260347</v>
+        <v>750.8748194215241</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794984</v>
+        <v>637.6995017749881</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485334</v>
+        <v>543.3437276440233</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475111</v>
+        <v>451.1914993430011</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309717</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1585.894737590017</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1352.526964084946</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1153.60334116043</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>919.9470364048406</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="X31" t="n">
-        <v>747.718350788194</v>
+        <v>1041.794132832552</v>
       </c>
       <c r="Y31" t="n">
-        <v>582.6866369260347</v>
+        <v>876.7624189703929</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,22 +6783,22 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>929.516333276596</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556558</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,55 +6835,55 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1321.461721072713</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,13 +7072,13 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,16 +7184,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277967</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1024.771599890051</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,22 +7804,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184157</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>5.100663089359692</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>87.16935584025447</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.23759968302141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>43.6598726146247</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>242.9997743936054</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>41.75994765618401</v>
       </c>
       <c r="O24" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9960,16 +9960,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>176.7176547498455</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10197,19 +10197,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.47535963978235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10431,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>272.8719470256808</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>93.88676507992591</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>297.2466435761027</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566552</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>230.7151863772031</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>97.17517341468798</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>7.280234771565745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.5525772159849</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3423613250361</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>125.5900033080662</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>65.95700631227307</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>82.44655487743363</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>124.4198406026822</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>60.96326325659231</v>
       </c>
       <c r="E25" t="n">
-        <v>117.8806598728687</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.148385621239</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>115.264003216354</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>17.09394134871734</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>76.90922386459729</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-6.130651669665873e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>848243.2574886672</v>
+        <v>848243.2574886674</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516049</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516047</v>
-      </c>
       <c r="E2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196774</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="I2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196775</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
         <v>589892.0991506411</v>
       </c>
       <c r="L2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="M2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="O2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="N2" t="n">
-        <v>595255.2831516047</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595255.2831516048</v>
-      </c>
       <c r="P2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516052</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563566</v>
+        <v>33210.29213563573</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275961</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26479,25 +26479,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775717</v>
+        <v>-234346.6323775718</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369729</v>
+        <v>355621.2468369727</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369727</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737407</v>
+        <v>-65298.35455334604</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.1410495221</v>
+        <v>459861.6819235498</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.1410495217</v>
+        <v>459861.6819235497</v>
       </c>
       <c r="H6" t="n">
-        <v>459959.1410495221</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.1410495219</v>
+        <v>459861.68192355</v>
       </c>
       <c r="J6" t="n">
-        <v>283535.921856929</v>
+        <v>283438.4627309566</v>
       </c>
       <c r="K6" t="n">
-        <v>415890.9931819369</v>
+        <v>415872.4994440027</v>
       </c>
       <c r="L6" t="n">
-        <v>449732.813667953</v>
+        <v>449732.8136679533</v>
       </c>
       <c r="M6" t="n">
         <v>325274.7052349827</v>
       </c>
       <c r="N6" t="n">
-        <v>460075.7204688197</v>
+        <v>460075.7204688199</v>
       </c>
       <c r="O6" t="n">
-        <v>460075.7204688199</v>
+        <v>460075.7204688198</v>
       </c>
       <c r="P6" t="n">
-        <v>415913.1151659738</v>
+        <v>415913.1151659745</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108349</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>137.0042322786516</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>60.02815772023337</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>16.98383927040527</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>293.7911095920359</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>7.412915817831959</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>60.55235952470807</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.5185856293582</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.310410991108</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>59.53652244142489</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>80.49006577330459</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787189</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.410856718809461e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28342,10 +28342,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.229288266773749e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29518,13 +29518,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>47.01084204426638</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>420.3639292382673</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.2506324680955</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35817,10 +35817,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
@@ -36054,10 +36054,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187475</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>354.084249665091</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>450.0931893251301</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556558</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>374.9545210541968</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>487.1420318003117</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>481.9867828282178</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>522.129651981705</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>404.3111421303921</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>546.504348532127</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445944</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>513.2182750716</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>479.9728913332275</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
